--- a/curso/lugares.xlsx
+++ b/curso/lugares.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19714" windowHeight="8343"/>
+    <workbookView windowWidth="19714" windowHeight="8343" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Paises" sheetId="1" r:id="rId1"/>
@@ -34277,12 +34277,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -34300,12 +34300,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -34314,6 +34313,74 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -34334,22 +34401,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -34364,15 +34430,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -34381,73 +34439,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -34462,7 +34453,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -34474,31 +34501,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -34516,7 +34525,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -34528,37 +34579,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -34576,7 +34597,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -34588,61 +34621,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -34661,47 +34652,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -34736,6 +34686,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -34753,153 +34733,164 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -34913,7 +34904,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -35233,8 +35224,8 @@
   <sheetPr/>
   <dimension ref="A1:B247"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.99159663865546" defaultRowHeight="12.6" outlineLevelCol="1"/>
@@ -35245,10 +35236,10 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -37232,7 +37223,7 @@
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.99159663865546" defaultRowHeight="12.6" outlineLevelCol="2"/>
@@ -37244,13 +37235,13 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -37562,8 +37553,8 @@
   <sheetPr/>
   <dimension ref="A1:C5566"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.99159663865546" defaultRowHeight="12.6" outlineLevelCol="2"/>
@@ -37575,13 +37566,13 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>578</v>
       </c>
     </row>
@@ -37614,7 +37605,7 @@
       <c r="B4" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>584</v>
       </c>
     </row>
